--- a/data/output/VF_LCIA_ready_multiimpact.xlsx
+++ b/data/output/VF_LCIA_ready_multiimpact.xlsx
@@ -978,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -1433,7 +1433,7 @@
         <v>95</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>62</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
@@ -1707,13 +1707,13 @@
         <v>62</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
       </c>
       <c r="G2">
-        <v>491730000</v>
+        <v>196692000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2182,7 +2182,7 @@
         <v>62</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
@@ -2206,22 +2206,22 @@
         <v>7.6</v>
       </c>
       <c r="M2">
-        <v>12.24</v>
+        <v>4.896</v>
       </c>
       <c r="N2">
-        <v>0.008399999999999999</v>
+        <v>0.00336</v>
       </c>
       <c r="O2">
-        <v>0.0054</v>
+        <v>0.00216</v>
       </c>
       <c r="P2">
-        <v>0.008399999999999999</v>
+        <v>0.00336</v>
       </c>
       <c r="Q2">
-        <v>0.003</v>
+        <v>0.0012</v>
       </c>
       <c r="R2">
-        <v>228</v>
+        <v>91.19999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2601,22 +2601,22 @@
         <v>108</v>
       </c>
       <c r="B2">
-        <v>12.24</v>
+        <v>4.896</v>
       </c>
       <c r="C2">
-        <v>0.008399999999999999</v>
+        <v>0.00336</v>
       </c>
       <c r="D2">
-        <v>0.0054</v>
+        <v>0.00216</v>
       </c>
       <c r="E2">
-        <v>0.008399999999999999</v>
+        <v>0.00336</v>
       </c>
       <c r="F2">
-        <v>0.003</v>
+        <v>0.0012</v>
       </c>
       <c r="G2">
-        <v>228</v>
+        <v>91.19999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2786,10 +2786,10 @@
         <v>138</v>
       </c>
       <c r="B2">
-        <v>12.53187030250648</v>
+        <v>5.187870302506483</v>
       </c>
       <c r="C2">
-        <v>205409886.1283837</v>
+        <v>85034382.12838377</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2797,10 +2797,10 @@
         <v>139</v>
       </c>
       <c r="B3">
-        <v>0.008514978392394122</v>
+        <v>0.003474978392394123</v>
       </c>
       <c r="C3">
-        <v>139569.0108297321</v>
+        <v>56958.37082973207</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2808,10 +2808,10 @@
         <v>140</v>
       </c>
       <c r="B4">
-        <v>0.005482794814174589</v>
+        <v>0.00224279481417459</v>
       </c>
       <c r="C4">
-        <v>89868.48979913568</v>
+        <v>36761.6497991357</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2819,10 +2819,10 @@
         <v>141</v>
       </c>
       <c r="B5">
-        <v>0.00897467588591184</v>
+        <v>0.003934675885911841</v>
       </c>
       <c r="C5">
-        <v>147103.912445981</v>
+        <v>64493.27244598098</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2830,10 +2830,10 @@
         <v>142</v>
       </c>
       <c r="B6">
-        <v>0.00312954382022472</v>
+        <v>0.001329543820224719</v>
       </c>
       <c r="C6">
-        <v>51296.35275730338</v>
+        <v>21792.55275730337</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2841,10 +2841,10 @@
         <v>143</v>
       </c>
       <c r="B7">
-        <v>234.6286603284356</v>
+        <v>97.8286603284356</v>
       </c>
       <c r="C7">
-        <v>3845798371.443388</v>
+        <v>1603509571.443388</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/VF_LCIA_ready_multiimpact.xlsx
+++ b/data/output/VF_LCIA_ready_multiimpact.xlsx
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -1441,7 +1441,7 @@
         <v>96</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1449,7 +1449,7 @@
         <v>97</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>127</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F3" t="s">
         <v>131</v>
@@ -1571,7 +1571,7 @@
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F4" t="s">
         <v>132</v>
@@ -1730,13 +1730,13 @@
         <v>127</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F3" t="s">
         <v>131</v>
       </c>
       <c r="G3">
-        <v>163910</v>
+        <v>327820</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1753,13 +1753,13 @@
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F4" t="s">
         <v>132</v>
       </c>
       <c r="G4">
-        <v>163910</v>
+        <v>327820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2238,7 +2238,7 @@
         <v>127</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F3" t="s">
         <v>131</v>
@@ -2262,22 +2262,22 @@
         <v>2.5</v>
       </c>
       <c r="M3">
-        <v>0.00344</v>
+        <v>0.00688</v>
       </c>
       <c r="N3">
+        <v>2E-06</v>
+      </c>
+      <c r="O3">
         <v>1E-06</v>
       </c>
-      <c r="O3">
-        <v>5.000000000000001E-07</v>
-      </c>
       <c r="P3">
-        <v>1E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="Q3">
-        <v>1E-07</v>
+        <v>2E-07</v>
       </c>
       <c r="R3">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2294,7 +2294,7 @@
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F4" t="s">
         <v>132</v>
@@ -2318,22 +2318,22 @@
         <v>1.5</v>
       </c>
       <c r="M4">
-        <v>0.007079999999999999</v>
+        <v>0.01416</v>
       </c>
       <c r="N4">
-        <v>1E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="O4">
-        <v>8.000000000000001E-07</v>
+        <v>1.6E-06</v>
       </c>
       <c r="P4">
-        <v>2E-06</v>
+        <v>4.000000000000001E-06</v>
       </c>
       <c r="Q4">
-        <v>1.5E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="R4">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2693,22 +2693,22 @@
         <v>110</v>
       </c>
       <c r="B6">
-        <v>0.007079999999999999</v>
+        <v>0.01416</v>
       </c>
       <c r="C6">
-        <v>1E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="D6">
-        <v>8.000000000000001E-07</v>
+        <v>1.6E-06</v>
       </c>
       <c r="E6">
-        <v>2E-06</v>
+        <v>4.000000000000001E-06</v>
       </c>
       <c r="F6">
-        <v>1.5E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="G6">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2739,22 +2739,22 @@
         <v>109</v>
       </c>
       <c r="B8">
-        <v>0.00344</v>
+        <v>0.00688</v>
       </c>
       <c r="C8">
+        <v>2E-06</v>
+      </c>
+      <c r="D8">
         <v>1E-06</v>
       </c>
-      <c r="D8">
-        <v>5.000000000000001E-07</v>
-      </c>
       <c r="E8">
-        <v>1E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="F8">
-        <v>1E-07</v>
+        <v>2E-07</v>
       </c>
       <c r="G8">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2786,10 +2786,10 @@
         <v>138</v>
       </c>
       <c r="B2">
-        <v>5.187870302506483</v>
+        <v>5.198390302506483</v>
       </c>
       <c r="C2">
-        <v>85034382.12838377</v>
+        <v>85206815.44838376</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2797,10 +2797,10 @@
         <v>139</v>
       </c>
       <c r="B3">
-        <v>0.003474978392394123</v>
+        <v>0.003476978392394122</v>
       </c>
       <c r="C3">
-        <v>56958.37082973207</v>
+        <v>56991.15282973206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2808,10 +2808,10 @@
         <v>140</v>
       </c>
       <c r="B4">
-        <v>0.00224279481417459</v>
+        <v>0.00224409481417459</v>
       </c>
       <c r="C4">
-        <v>36761.6497991357</v>
+        <v>36782.9580991357</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2819,10 +2819,10 @@
         <v>141</v>
       </c>
       <c r="B5">
-        <v>0.003934675885911841</v>
+        <v>0.003937675885911841</v>
       </c>
       <c r="C5">
-        <v>64493.27244598098</v>
+        <v>64542.44544598099</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2830,10 +2830,10 @@
         <v>142</v>
       </c>
       <c r="B6">
-        <v>0.001329543820224719</v>
+        <v>0.001331143820224719</v>
       </c>
       <c r="C6">
-        <v>21792.55275730337</v>
+        <v>21818.77835730337</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2841,10 +2841,10 @@
         <v>143</v>
       </c>
       <c r="B7">
-        <v>97.8286603284356</v>
+        <v>97.8686603284356</v>
       </c>
       <c r="C7">
-        <v>1603509571.443388</v>
+        <v>1604165211.443388</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/VF_LCIA_ready_multiimpact.xlsx
+++ b/data/output/VF_LCIA_ready_multiimpact.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koushik/Desktop/MS/DSS5202/Project/DSS5202_Vertical_Farming/data/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45EF956-F0E5-AD4F-9ACF-71F1E16D3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4100" yWindow="620" windowWidth="22060" windowHeight="14520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs_Parameters" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="LCIA_by_stage" sheetId="7" r:id="rId7"/>
     <sheet name="LCIA_totals_multi" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -506,8 +512,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,13 +576,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -614,7 +628,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -648,6 +662,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -682,9 +697,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -857,14 +873,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -892,7 +914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -903,7 +925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -917,7 +939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -931,7 +953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -945,7 +967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -959,7 +981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -973,7 +995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -987,7 +1009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1057,12 +1079,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>70.8340536</v>
+        <v>70.834053600000004</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
@@ -1071,7 +1093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1085,7 +1107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1162,18 +1184,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>44906.8493150685</v>
+        <v>44906.849315068503</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1184,29 +1206,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>34147.91666666666</v>
+        <v>34147.916666666657</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7904.610339506173</v>
+        <v>7904.6103395061727</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1261,18 +1283,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
-        <v>8981.369863013699</v>
+        <v>8981.3698630136987</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1283,29 +1305,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
-        <v>614.6625</v>
+        <v>614.66250000000002</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
-        <v>61.46625</v>
+        <v>61.466250000000002</v>
       </c>
       <c r="C36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1338,7 +1360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1349,29 +1371,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41">
-        <v>89813.69863013699</v>
+        <v>89813.698630136991</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42">
-        <v>359.254794520548</v>
+        <v>359.25479452054799</v>
       </c>
       <c r="C42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1385,7 +1407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1405,14 +1427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1420,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>16391000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1436,7 +1458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1444,7 +1466,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1452,23 +1474,23 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
       <c r="B6">
-        <v>0.01497407087294728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1.4974070872947279E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7">
-        <v>2.16076058772688E-06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>2.16076058772688E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -1476,7 +1498,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1490,14 +1512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -1517,7 +1539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1537,7 +1559,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1557,7 +1579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1577,7 +1599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1591,13 +1613,13 @@
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.01497407087294728</v>
+        <v>1.4974070872947279E-2</v>
       </c>
       <c r="F5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1611,13 +1633,13 @@
         <v>128</v>
       </c>
       <c r="E6">
-        <v>2.16076058772688E-06</v>
+        <v>2.16076058772688E-6</v>
       </c>
       <c r="F6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1637,7 +1659,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1663,14 +1685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -1693,7 +1715,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1716,7 +1738,7 @@
         <v>196692000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1739,7 +1761,7 @@
         <v>327820</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>327820</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1776,16 +1798,16 @@
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.01497407087294728</v>
+        <v>1.4974070872947279E-2</v>
       </c>
       <c r="F5" t="s">
         <v>133</v>
       </c>
       <c r="G5">
-        <v>245439.9956784788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>245439.99567847879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1799,7 +1821,7 @@
         <v>128</v>
       </c>
       <c r="E6">
-        <v>2.16076058772688E-06</v>
+        <v>2.16076058772688E-6</v>
       </c>
       <c r="F6" t="s">
         <v>134</v>
@@ -1808,7 +1830,7 @@
         <v>35.41702679343129</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1831,7 +1853,7 @@
         <v>1311280</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1860,14 +1882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -1896,7 +1918,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1904,19 +1926,19 @@
         <v>62</v>
       </c>
       <c r="C2">
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D2">
-        <v>0.00028</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="E2">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="F2">
-        <v>0.00028</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="G2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="H2">
         <v>7.6</v>
@@ -1925,7 +1947,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1933,19 +1955,19 @@
         <v>127</v>
       </c>
       <c r="C3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E3">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G3">
-        <v>1E-05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H3">
         <v>2.5</v>
@@ -1954,7 +1976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -1962,19 +1984,19 @@
         <v>127</v>
       </c>
       <c r="C4">
-        <v>0.708</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E4">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="F4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G4">
-        <v>0.00015</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="H4">
         <v>1.5</v>
@@ -1983,7 +2005,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -1994,16 +2016,16 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="F5">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2012,7 +2034,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2023,10 +2045,10 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="E6">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F6">
         <v>0.03</v>
@@ -2041,7 +2063,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2052,16 +2074,16 @@
         <v>2.7</v>
       </c>
       <c r="D7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="F7">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -2070,7 +2092,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2081,16 +2103,16 @@
         <v>0.18</v>
       </c>
       <c r="D8">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E8">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F8">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -2105,14 +2127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2168,7 +2190,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -2188,43 +2210,43 @@
         <v>130</v>
       </c>
       <c r="G2">
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H2">
-        <v>0.00028</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="I2">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="J2">
-        <v>0.00028</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="K2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L2">
         <v>7.6</v>
       </c>
       <c r="M2">
-        <v>4.896</v>
+        <v>4.8959999999999999</v>
       </c>
       <c r="N2">
-        <v>0.00336</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="O2">
-        <v>0.00216</v>
+        <v>2.16E-3</v>
       </c>
       <c r="P2">
-        <v>0.00336</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="Q2">
-        <v>0.0012</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="R2">
-        <v>91.19999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>91.199999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -2244,43 +2266,43 @@
         <v>131</v>
       </c>
       <c r="G3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I3">
-        <v>5E-05</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="J3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="K3">
-        <v>1E-05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L3">
         <v>2.5</v>
       </c>
       <c r="M3">
-        <v>0.00688</v>
+        <v>6.8799999999999998E-3</v>
       </c>
       <c r="N3">
-        <v>2E-06</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="O3">
-        <v>1E-06</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="P3">
-        <v>2E-06</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q3">
-        <v>2E-07</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="R3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2300,43 +2322,43 @@
         <v>132</v>
       </c>
       <c r="G4">
-        <v>0.708</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="H4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I4">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="J4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K4">
-        <v>0.00015</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="L4">
         <v>1.5</v>
       </c>
       <c r="M4">
-        <v>0.01416</v>
+        <v>1.4160000000000001E-2</v>
       </c>
       <c r="N4">
-        <v>2E-06</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="O4">
-        <v>1.6E-06</v>
+        <v>1.5999999999999999E-6</v>
       </c>
       <c r="P4">
-        <v>4.000000000000001E-06</v>
+        <v>4.0000000000000007E-6</v>
       </c>
       <c r="Q4">
-        <v>3E-06</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="R4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.01497407087294728</v>
+        <v>1.4974070872947279E-2</v>
       </c>
       <c r="F5" t="s">
         <v>133</v>
@@ -2359,40 +2381,40 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="I5">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="J5">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L5">
         <v>60</v>
       </c>
       <c r="M5">
-        <v>0.05989628349178911</v>
+        <v>5.9896283491789111E-2</v>
       </c>
       <c r="N5">
-        <v>1.497407087294728E-05</v>
+        <v>1.4974070872947281E-5</v>
       </c>
       <c r="O5">
-        <v>1.048184961106309E-05</v>
+        <v>1.0481849611063089E-5</v>
       </c>
       <c r="P5">
-        <v>0.0002246110630942092</v>
+        <v>2.2461106309420919E-4</v>
       </c>
       <c r="Q5">
-        <v>4.492221261884183E-05</v>
+        <v>4.4922212618841832E-5</v>
       </c>
       <c r="R5">
-        <v>0.8984442523768367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0.89844425237683667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2406,7 +2428,7 @@
         <v>128</v>
       </c>
       <c r="E6">
-        <v>2.16076058772688E-06</v>
+        <v>2.16076058772688E-6</v>
       </c>
       <c r="F6" t="s">
         <v>134</v>
@@ -2415,10 +2437,10 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I6">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J6">
         <v>0.03</v>
@@ -2430,25 +2452,25 @@
         <v>100</v>
       </c>
       <c r="M6">
-        <v>5.4019014693172E-05</v>
+        <v>5.4019014693171998E-5</v>
       </c>
       <c r="N6">
-        <v>4.32152117545376E-09</v>
+        <v>4.3215211754537596E-9</v>
       </c>
       <c r="O6">
-        <v>1.296456352636128E-08</v>
+        <v>1.296456352636128E-8</v>
       </c>
       <c r="P6">
-        <v>6.48228176318064E-08</v>
+        <v>6.4822817631806397E-8</v>
       </c>
       <c r="Q6">
-        <v>2.16076058772688E-08</v>
+        <v>2.1607605877268801E-8</v>
       </c>
       <c r="R6">
-        <v>0.000216076058772688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>2.1607605877268799E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -2471,16 +2493,16 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="I7">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="J7">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="L7">
         <v>70</v>
@@ -2489,22 +2511,22 @@
         <v>0.216</v>
       </c>
       <c r="N7">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="O7">
-        <v>5.6E-05</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="P7">
-        <v>0.00032</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="Q7">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="R7">
-        <v>5.600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>5.6000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2527,34 +2549,34 @@
         <v>0.18</v>
       </c>
       <c r="H8">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I8">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J8">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>0.005399999999999999</v>
+        <v>5.3999999999999994E-3</v>
       </c>
       <c r="N8">
-        <v>1.8E-05</v>
+        <v>1.8E-5</v>
       </c>
       <c r="O8">
-        <v>1.5E-05</v>
+        <v>1.5E-5</v>
       </c>
       <c r="P8">
-        <v>2.7E-05</v>
+        <v>2.6999999999999999E-5</v>
       </c>
       <c r="Q8">
-        <v>3E-06</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="R8">
         <v>0.09</v>
@@ -2566,14 +2588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2596,53 +2618,53 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
       <c r="B2">
-        <v>4.896</v>
+        <v>4.8959999999999999</v>
       </c>
       <c r="C2">
-        <v>0.00336</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="D2">
-        <v>0.00216</v>
+        <v>2.16E-3</v>
       </c>
       <c r="E2">
-        <v>0.00336</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>0.0012</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G2">
-        <v>91.19999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>91.199999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
       <c r="B3">
-        <v>0.05989628349178911</v>
+        <v>5.9896283491789111E-2</v>
       </c>
       <c r="C3">
-        <v>1.497407087294728E-05</v>
+        <v>1.4974070872947281E-5</v>
       </c>
       <c r="D3">
-        <v>1.048184961106309E-05</v>
+        <v>1.0481849611063089E-5</v>
       </c>
       <c r="E3">
-        <v>0.0002246110630942092</v>
+        <v>2.2461106309420919E-4</v>
       </c>
       <c r="F3">
-        <v>4.492221261884183E-05</v>
+        <v>4.4922212618841832E-5</v>
       </c>
       <c r="G3">
-        <v>0.8984442523768367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.89844425237683667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -2650,108 +2672,108 @@
         <v>0.216</v>
       </c>
       <c r="C4">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D4">
-        <v>5.6E-05</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="E4">
-        <v>0.00032</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F4">
-        <v>8.000000000000001E-05</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G4">
-        <v>5.600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5.6000000000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
       <c r="B5">
-        <v>5.4019014693172E-05</v>
+        <v>5.4019014693171998E-5</v>
       </c>
       <c r="C5">
-        <v>4.32152117545376E-09</v>
+        <v>4.3215211754537596E-9</v>
       </c>
       <c r="D5">
-        <v>1.296456352636128E-08</v>
+        <v>1.296456352636128E-8</v>
       </c>
       <c r="E5">
-        <v>6.48228176318064E-08</v>
+        <v>6.4822817631806397E-8</v>
       </c>
       <c r="F5">
-        <v>2.16076058772688E-08</v>
+        <v>2.1607605877268801E-8</v>
       </c>
       <c r="G5">
-        <v>0.000216076058772688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>2.1607605877268799E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
       <c r="B6">
-        <v>0.01416</v>
+        <v>1.4160000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>2E-06</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="D6">
-        <v>1.6E-06</v>
+        <v>1.5999999999999999E-6</v>
       </c>
       <c r="E6">
-        <v>4.000000000000001E-06</v>
+        <v>4.0000000000000007E-6</v>
       </c>
       <c r="F6">
-        <v>3E-06</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="G6">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
       <c r="B7">
-        <v>0.005399999999999999</v>
+        <v>5.3999999999999994E-3</v>
       </c>
       <c r="C7">
-        <v>1.8E-05</v>
+        <v>1.8E-5</v>
       </c>
       <c r="D7">
-        <v>1.5E-05</v>
+        <v>1.5E-5</v>
       </c>
       <c r="E7">
-        <v>2.7E-05</v>
+        <v>2.6999999999999999E-5</v>
       </c>
       <c r="F7">
-        <v>3E-06</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="G7">
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>109</v>
       </c>
       <c r="B8">
-        <v>0.00688</v>
+        <v>6.8799999999999998E-3</v>
       </c>
       <c r="C8">
-        <v>2E-06</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="D8">
-        <v>1E-06</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E8">
-        <v>2E-06</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F8">
-        <v>2E-07</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="G8">
         <v>0.05</v>
@@ -2763,14 +2785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2781,67 +2803,67 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>138</v>
       </c>
       <c r="B2">
-        <v>5.198390302506483</v>
+        <v>5.1983903025064828</v>
       </c>
       <c r="C2">
-        <v>85206815.44838376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>85206815.448383763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
       <c r="B3">
-        <v>0.003476978392394122</v>
+        <v>3.4769783923941219E-3</v>
       </c>
       <c r="C3">
-        <v>56991.15282973206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>56991.152829732062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4">
-        <v>0.00224409481417459</v>
+        <v>2.24409481417459E-3</v>
       </c>
       <c r="C4">
         <v>36782.9580991357</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
       <c r="B5">
-        <v>0.003937675885911841</v>
+        <v>3.9376758859118411E-3</v>
       </c>
       <c r="C5">
-        <v>64542.44544598099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>64542.445445980993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6">
-        <v>0.001331143820224719</v>
+        <v>1.331143820224719E-3</v>
       </c>
       <c r="C6">
         <v>21818.77835730337</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
       <c r="B7">
-        <v>97.8686603284356</v>
+        <v>97.868660328435595</v>
       </c>
       <c r="C7">
         <v>1604165211.443388</v>

--- a/data/output/VF_LCIA_ready_multiimpact.xlsx
+++ b/data/output/VF_LCIA_ready_multiimpact.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koushik/Desktop/MS/DSS5202/Project/DSS5202_Vertical_Farming/data/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45EF956-F0E5-AD4F-9ACF-71F1E16D3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="620" windowWidth="22060" windowHeight="14520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Inputs_Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Inputs_VF_Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Derived_perkg" sheetId="2" r:id="rId2"/>
     <sheet name="LCI_perkg" sheetId="3" r:id="rId3"/>
     <sheet name="Annual_inventory" sheetId="4" r:id="rId4"/>
@@ -22,12 +16,12 @@
     <sheet name="LCIA_by_stage" sheetId="7" r:id="rId7"/>
     <sheet name="LCIA_totals_multi" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="121">
   <si>
     <t>Parameter</t>
   </si>
@@ -41,12 +35,27 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Distribution distance (km)</t>
+  </si>
+  <si>
+    <t>Product price (SGD/kg)</t>
+  </si>
+  <si>
+    <t>Fertilizer intensity (kg/kg produce)</t>
+  </si>
+  <si>
+    <t>Pesticide intensity (kg/kg produce)</t>
+  </si>
+  <si>
     <t>Annual edible output (kg/yr)</t>
   </si>
   <si>
     <t>Discount rate r (decimal)</t>
   </si>
   <si>
+    <t>Facility lifetime (years)</t>
+  </si>
+  <si>
     <t>Electricity tariff (SGD/kWh)</t>
   </si>
   <si>
@@ -65,114 +74,42 @@
     <t>Lighting kWh per kg</t>
   </si>
   <si>
-    <t>Other kWh per kg (HVAC, pumps, etc.)</t>
+    <t>HVAC &amp; other kWh per kg</t>
   </si>
   <si>
     <t>Water m3 per kg</t>
   </si>
   <si>
-    <t>Packaging cost per kg (SGD/kg)</t>
-  </si>
-  <si>
-    <t>Distribution cost per kg (SGD/kg)</t>
-  </si>
-  <si>
-    <t>Maintenance rate (% of CAPEX per year)</t>
-  </si>
-  <si>
-    <t>Farm Area ha (equiv)</t>
-  </si>
-  <si>
-    <t>Productivity (t/ha)</t>
-  </si>
-  <si>
-    <t>Number of licensed vegetable farms</t>
-  </si>
-  <si>
-    <t>Fertilizer Use</t>
-  </si>
-  <si>
-    <t>Pesticide Use</t>
-  </si>
-  <si>
-    <t>Water Intensity</t>
-  </si>
-  <si>
-    <t>Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Electricity Consumption</t>
-  </si>
-  <si>
-    <t>Water Consumption</t>
-  </si>
-  <si>
-    <t>Daily output</t>
-  </si>
-  <si>
-    <t>Growing area</t>
-  </si>
-  <si>
-    <t>Floor area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racks </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED connected load </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED annual energy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total annual energy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lighting energy </t>
-  </si>
-  <si>
-    <t>HVAC energy</t>
-  </si>
-  <si>
-    <t>HVAC avg electric power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydroponic tank volume </t>
-  </si>
-  <si>
-    <t>Recirculation flow</t>
-  </si>
-  <si>
-    <t>Pump power</t>
-  </si>
-  <si>
-    <t>PAR sensors</t>
-  </si>
-  <si>
-    <t>Temp/RH sensors</t>
-  </si>
-  <si>
-    <t>CO₂ sensors</t>
-  </si>
-  <si>
-    <t>EC/pH controllers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold room mass </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold room volume </t>
-  </si>
-  <si>
-    <t>Packaging mass per kg (kg)</t>
-  </si>
-  <si>
-    <t>Refrigerated tkm per kg</t>
+    <t>Nutrients cost (SGD/kg produce)</t>
+  </si>
+  <si>
+    <t>Growing media cost (SGD/kg)</t>
+  </si>
+  <si>
+    <t>CO2 cost (SGD/kg produce)</t>
+  </si>
+  <si>
+    <t>Packaging cost (SGD/kg)</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>SGD/kg</t>
+  </si>
+  <si>
+    <t>kg/kg</t>
   </si>
   <si>
     <t>kg/yr</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>SGD/kWh</t>
   </si>
   <si>
@@ -191,225 +128,165 @@
     <t>m3/kg</t>
   </si>
   <si>
-    <t>SGD/kg</t>
-  </si>
-  <si>
-    <t>fraction/yr</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>t/ha</t>
-  </si>
-  <si>
-    <t>farms</t>
-  </si>
-  <si>
-    <t>kg/ha</t>
-  </si>
-  <si>
-    <t>kg a.i./ha</t>
-  </si>
-  <si>
-    <t>L/kg</t>
+    <t>Local Singapore</t>
+  </si>
+  <si>
+    <t>Premium leafy greens</t>
+  </si>
+  <si>
+    <t>Precise delivery</t>
+  </si>
+  <si>
+    <t>Controlled environment</t>
+  </si>
+  <si>
+    <t>Large-scale commercial VF</t>
+  </si>
+  <si>
+    <t>Singapore commercial rate</t>
+  </si>
+  <si>
+    <t>Industrial facility lifetime</t>
+  </si>
+  <si>
+    <t>SP Group 2024</t>
+  </si>
+  <si>
+    <t>PUB 2024</t>
+  </si>
+  <si>
+    <t>Competitive wage + benefits</t>
+  </si>
+  <si>
+    <t>Highly automated</t>
+  </si>
+  <si>
+    <t>Modern LED efficiency</t>
+  </si>
+  <si>
+    <t>Tropical cooling needs</t>
+  </si>
+  <si>
+    <t>95% water recovery</t>
+  </si>
+  <si>
+    <t>NPK solution</t>
+  </si>
+  <si>
+    <t>Rockwool/coco</t>
+  </si>
+  <si>
+    <t>CO2 enrichment</t>
+  </si>
+  <si>
+    <t>Food-grade plastic</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Annual output (kg/yr)</t>
+  </si>
+  <si>
+    <t>Electricity (kWh/kg)</t>
+  </si>
+  <si>
+    <t>Water (m3/kg)</t>
+  </si>
+  <si>
+    <t>Sewer (m3/kg)</t>
+  </si>
+  <si>
+    <t>Fertilizer (kg/kg)</t>
+  </si>
+  <si>
+    <t>Pesticide (kg/kg)</t>
+  </si>
+  <si>
+    <t>Packaging (kg/kg)</t>
+  </si>
+  <si>
+    <t>Refrig tkm/kg</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>flow_name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>amount_per_kg</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Sewerage</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Pesticide</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>Water, tap</t>
+  </si>
+  <si>
+    <t>Sewerage, treatment</t>
+  </si>
+  <si>
+    <t>Fertilizer, NPK (as applied)</t>
+  </si>
+  <si>
+    <t>Pesticide, active ingredient</t>
+  </si>
+  <si>
+    <t>Packaging, plastic (generic)</t>
+  </si>
+  <si>
+    <t>Distribution, refrigerated van-km</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>agrochemicals</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>transport</t>
   </si>
   <si>
     <t>kWh</t>
   </si>
   <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>kg/day</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
-    <t>(kWh/yr, photoperiod method)</t>
-  </si>
-  <si>
-    <t>(kWh/yr, specific-energy method)</t>
-  </si>
-  <si>
-    <t>(kWh/yr, specific-energy)</t>
-  </si>
-  <si>
-    <t>m³</t>
-  </si>
-  <si>
-    <t>m³/h</t>
-  </si>
-  <si>
-    <t>kW, rough</t>
-  </si>
-  <si>
-    <t>(kg, 2-day buffer)</t>
-  </si>
-  <si>
-    <t>kg/kg</t>
-  </si>
-  <si>
-    <t>tkm/kg</t>
-  </si>
-  <si>
-    <t>Edit to your farm</t>
-  </si>
-  <si>
-    <t>Use 0.05–0.10 in sensitivity</t>
-  </si>
-  <si>
-    <t>EMA tariff (estimate; edit)</t>
-  </si>
-  <si>
-    <t>PUB</t>
-  </si>
-  <si>
-    <t>Fully-loaded wage</t>
-  </si>
-  <si>
-    <t>Average across tasks</t>
-  </si>
-  <si>
-    <t>Separate lighting from other electricity</t>
-  </si>
-  <si>
-    <t>HVAC/dehumidification/ventilation/pumps/electronics</t>
-  </si>
-  <si>
-    <t>Closed-loop systems often low</t>
-  </si>
-  <si>
-    <t>Bags/clamshells/labels</t>
-  </si>
-  <si>
-    <t>Last-mile chilled distribution</t>
-  </si>
-  <si>
-    <t>Applied to sum of annualized CAPEX</t>
-  </si>
-  <si>
-    <t>data.gov.sg “Agricultural Land Area” dataset</t>
-  </si>
-  <si>
-    <t>SFA 2024 report</t>
-  </si>
-  <si>
-    <t>Polybag + PET mix (≈ 80 g plastic / kg veg)</t>
-  </si>
-  <si>
-    <t>30 km refrigerated delivery radius</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Annual output (kg/yr)</t>
-  </si>
-  <si>
-    <t>Electricity (kWh/kg)</t>
-  </si>
-  <si>
-    <t>Water (m3/kg)</t>
-  </si>
-  <si>
-    <t>Sewer (m3/kg)</t>
-  </si>
-  <si>
-    <t>Fertilizer (kg/kg)</t>
-  </si>
-  <si>
-    <t>Pesticide (kg/kg)</t>
-  </si>
-  <si>
-    <t>Packaging (kg/kg)</t>
-  </si>
-  <si>
-    <t>Refrig tkm/kg</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>flow_name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>amount_per_kg</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Sewerage</t>
-  </si>
-  <si>
-    <t>Fertilizer</t>
-  </si>
-  <si>
-    <t>Pesticide</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>Water, tap</t>
-  </si>
-  <si>
-    <t>Sewerage, treatment</t>
-  </si>
-  <si>
-    <t>Fertilizer, NPK (as applied)</t>
-  </si>
-  <si>
-    <t>Pesticide, active ingredient</t>
-  </si>
-  <si>
-    <t>Packaging, plastic (generic)</t>
-  </si>
-  <si>
-    <t>Distribution, refrigerated van-km</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>agrochemicals</t>
-  </si>
-  <si>
-    <t>materials</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
@@ -419,25 +296,25 @@
     <t>tkm</t>
   </si>
   <si>
-    <t>SG grid</t>
-  </si>
-  <si>
-    <t>PUB water</t>
-  </si>
-  <si>
-    <t>WWTP</t>
-  </si>
-  <si>
-    <t>NPK</t>
-  </si>
-  <si>
-    <t>a.i.</t>
-  </si>
-  <si>
-    <t>PET/PP/PE</t>
-  </si>
-  <si>
-    <t>gate+ optional</t>
+    <t>grid electricity</t>
+  </si>
+  <si>
+    <t>supply water</t>
+  </si>
+  <si>
+    <t>wastewater treatment</t>
+  </si>
+  <si>
+    <t>on-crop fertilizer</t>
+  </si>
+  <si>
+    <t>a.i. use</t>
+  </si>
+  <si>
+    <t>primary packaging</t>
+  </si>
+  <si>
+    <t>cold chain delivery</t>
   </si>
   <si>
     <t>annual_amount</t>
@@ -512,8 +389,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,21 +453,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -628,7 +497,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -662,7 +531,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -697,10 +565,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,20 +740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,525 +761,270 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>16391000</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.08</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>0.015</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2.74</v>
+        <v>2E-06</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2.15</v>
+        <v>16000000</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0.08</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>7.2</v>
+        <v>0.28</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>4.8</v>
+        <v>2.74</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>2.15</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.05</v>
+        <v>1.2</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>70.834053600000004</v>
+        <v>0.8</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>231.4</v>
+        <v>0.015</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>0.08</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>3465</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>12.5</v>
-      </c>
-      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>204887500</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>327820</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>44906.849315068503</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>204887.5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>34147.916666666657</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>7904.6103395061727</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>30733.125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>179481450</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>196692000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>118015200</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>78676800</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>8981.3698630136987</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>1024.4375</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>614.66250000000002</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>61.466250000000002</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37">
-        <v>2049</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>1025</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>410</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
-        <v>205</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>89813.698630136991</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
-        <v>359.25479452054799</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
-        <v>0.08</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>0.03</v>
-      </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1427,83 +1033,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>16391000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>1.4974070872947279E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>2.16076058772688E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1512,171 +1118,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>1.4974070872947279E-2</v>
+        <v>0.015</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>2.16076058772688E-6</v>
+        <v>2E-06</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1685,195 +1291,195 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>196692000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>327820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>327820</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>1.4974070872947279E-2</v>
+        <v>0.015</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="G5">
-        <v>245439.99567847879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>2.16076058772688E-6</v>
+        <v>2E-06</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="G6">
-        <v>35.41702679343129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="G7">
-        <v>1311280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G8">
-        <v>491730</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1882,173 +1488,173 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>0.40799999999999997</v>
+        <v>0.408</v>
       </c>
       <c r="D2">
-        <v>2.7999999999999998E-4</v>
+        <v>0.00028</v>
       </c>
       <c r="E2">
-        <v>1.8000000000000001E-4</v>
+        <v>0.00018</v>
       </c>
       <c r="F2">
-        <v>2.7999999999999998E-4</v>
+        <v>0.00028</v>
       </c>
       <c r="G2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="H2">
         <v>7.6</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C3">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E3">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="F3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="G3">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-05</v>
       </c>
       <c r="H3">
         <v>2.5</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D4">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="E4">
-        <v>8.0000000000000007E-5</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F4">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="G4">
-        <v>1.4999999999999999E-4</v>
+        <v>0.00015</v>
       </c>
       <c r="H4">
         <v>1.5</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E5">
-        <v>6.9999999999999999E-4</v>
+        <v>0.0007</v>
       </c>
       <c r="F5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="G5">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="H5">
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="E6">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="F6">
         <v>0.03</v>
@@ -2060,65 +1666,65 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>2.7</v>
       </c>
       <c r="D7">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E7">
-        <v>6.9999999999999999E-4</v>
+        <v>0.0007</v>
       </c>
       <c r="F7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="G7">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="H7">
         <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>0.18</v>
       </c>
       <c r="D8">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E8">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="F8">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="G8">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2127,320 +1733,320 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>0.40799999999999997</v>
+        <v>0.408</v>
       </c>
       <c r="H2">
-        <v>2.7999999999999998E-4</v>
+        <v>0.00028</v>
       </c>
       <c r="I2">
-        <v>1.8000000000000001E-4</v>
+        <v>0.00018</v>
       </c>
       <c r="J2">
-        <v>2.7999999999999998E-4</v>
+        <v>0.00028</v>
       </c>
       <c r="K2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="L2">
         <v>7.6</v>
       </c>
       <c r="M2">
-        <v>4.8959999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="N2">
-        <v>3.3600000000000001E-3</v>
+        <v>0.00056</v>
       </c>
       <c r="O2">
-        <v>2.16E-3</v>
+        <v>0.00036</v>
       </c>
       <c r="P2">
-        <v>3.3600000000000001E-3</v>
+        <v>0.00056</v>
       </c>
       <c r="Q2">
-        <v>1.1999999999999999E-3</v>
+        <v>0.0002</v>
       </c>
       <c r="R2">
-        <v>91.199999999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="H3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="I3">
-        <v>5.0000000000000002E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="J3">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="K3">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-05</v>
       </c>
       <c r="L3">
         <v>2.5</v>
       </c>
       <c r="M3">
-        <v>6.8799999999999998E-3</v>
+        <v>0.00516</v>
       </c>
       <c r="N3">
-        <v>1.9999999999999999E-6</v>
+        <v>1.5E-06</v>
       </c>
       <c r="O3">
-        <v>9.9999999999999995E-7</v>
+        <v>7.5E-07</v>
       </c>
       <c r="P3">
-        <v>1.9999999999999999E-6</v>
+        <v>1.5E-06</v>
       </c>
       <c r="Q3">
-        <v>1.9999999999999999E-7</v>
+        <v>1.5E-07</v>
       </c>
       <c r="R3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.0375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="H4">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="I4">
-        <v>8.0000000000000007E-5</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="J4">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="K4">
-        <v>1.4999999999999999E-4</v>
+        <v>0.00015</v>
       </c>
       <c r="L4">
         <v>1.5</v>
       </c>
       <c r="M4">
-        <v>1.4160000000000001E-2</v>
+        <v>0.01062</v>
       </c>
       <c r="N4">
-        <v>1.9999999999999999E-6</v>
+        <v>1.5E-06</v>
       </c>
       <c r="O4">
-        <v>1.5999999999999999E-6</v>
+        <v>1.2E-06</v>
       </c>
       <c r="P4">
-        <v>4.0000000000000007E-6</v>
+        <v>3E-06</v>
       </c>
       <c r="Q4">
-        <v>3.0000000000000001E-6</v>
+        <v>2.25E-06</v>
       </c>
       <c r="R4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>1.4974070872947279E-2</v>
+        <v>0.015</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="I5">
-        <v>6.9999999999999999E-4</v>
+        <v>0.0007</v>
       </c>
       <c r="J5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="K5">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="L5">
         <v>60</v>
       </c>
       <c r="M5">
-        <v>5.9896283491789111E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N5">
-        <v>1.4974070872947281E-5</v>
+        <v>1.5E-05</v>
       </c>
       <c r="O5">
-        <v>1.0481849611063089E-5</v>
+        <v>1.05E-05</v>
       </c>
       <c r="P5">
-        <v>2.2461106309420919E-4</v>
+        <v>0.000225</v>
       </c>
       <c r="Q5">
-        <v>4.4922212618841832E-5</v>
+        <v>4.5E-05</v>
       </c>
       <c r="R5">
-        <v>0.89844425237683667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>2.16076058772688E-6</v>
+        <v>2E-06</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <v>25</v>
       </c>
       <c r="H6">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="I6">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="J6">
         <v>0.03</v>
@@ -2452,134 +2058,134 @@
         <v>100</v>
       </c>
       <c r="M6">
-        <v>5.4019014693171998E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="N6">
-        <v>4.3215211754537596E-9</v>
+        <v>4E-09</v>
       </c>
       <c r="O6">
-        <v>1.296456352636128E-8</v>
+        <v>1.2E-08</v>
       </c>
       <c r="P6">
-        <v>6.4822817631806397E-8</v>
+        <v>5.999999999999999E-08</v>
       </c>
       <c r="Q6">
-        <v>2.1607605877268801E-8</v>
+        <v>2E-08</v>
       </c>
       <c r="R6">
-        <v>2.1607605877268799E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="I7">
-        <v>6.9999999999999999E-4</v>
+        <v>0.0007</v>
       </c>
       <c r="J7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="K7">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="L7">
         <v>70</v>
       </c>
       <c r="M7">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>5.5999999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.2000000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>5.6000000000000014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <v>0.18</v>
       </c>
       <c r="H8">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I8">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="J8">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="K8">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>5.3999999999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.8E-5</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.5E-5</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>2.6999999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>3.0000000000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2588,195 +2194,195 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>4.8959999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C2">
-        <v>3.3600000000000001E-3</v>
+        <v>0.00056</v>
       </c>
       <c r="D2">
-        <v>2.16E-3</v>
+        <v>0.00036</v>
       </c>
       <c r="E2">
-        <v>3.3600000000000001E-3</v>
+        <v>0.00056</v>
       </c>
       <c r="F2">
-        <v>1.1999999999999999E-3</v>
+        <v>0.0002</v>
       </c>
       <c r="G2">
-        <v>91.199999999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>5.9896283491789111E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C3">
-        <v>1.4974070872947281E-5</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D3">
-        <v>1.0481849611063089E-5</v>
+        <v>1.05E-05</v>
       </c>
       <c r="E3">
-        <v>2.2461106309420919E-4</v>
+        <v>0.000225</v>
       </c>
       <c r="F3">
-        <v>4.4922212618841832E-5</v>
+        <v>4.5E-05</v>
       </c>
       <c r="G3">
-        <v>0.89844425237683667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5.5999999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.2000000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.6000000000000014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>5.4019014693171998E-5</v>
+        <v>5E-05</v>
       </c>
       <c r="C5">
-        <v>4.3215211754537596E-9</v>
+        <v>4E-09</v>
       </c>
       <c r="D5">
-        <v>1.296456352636128E-8</v>
+        <v>1.2E-08</v>
       </c>
       <c r="E5">
-        <v>6.4822817631806397E-8</v>
+        <v>5.999999999999999E-08</v>
       </c>
       <c r="F5">
-        <v>2.1607605877268801E-8</v>
+        <v>2E-08</v>
       </c>
       <c r="G5">
-        <v>2.1607605877268799E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B6">
-        <v>1.4160000000000001E-2</v>
+        <v>0.01062</v>
       </c>
       <c r="C6">
-        <v>1.9999999999999999E-6</v>
+        <v>1.5E-06</v>
       </c>
       <c r="D6">
-        <v>1.5999999999999999E-6</v>
+        <v>1.2E-06</v>
       </c>
       <c r="E6">
-        <v>4.0000000000000007E-6</v>
+        <v>3E-06</v>
       </c>
       <c r="F6">
-        <v>3.0000000000000001E-6</v>
+        <v>2.25E-06</v>
       </c>
       <c r="G6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>5.3999999999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.8E-5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1.5E-5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.6999999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3.0000000000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>6.8799999999999998E-3</v>
+        <v>0.00516</v>
       </c>
       <c r="C8">
-        <v>1.9999999999999999E-6</v>
+        <v>1.5E-06</v>
       </c>
       <c r="D8">
-        <v>9.9999999999999995E-7</v>
+        <v>7.5E-07</v>
       </c>
       <c r="E8">
-        <v>1.9999999999999999E-6</v>
+        <v>1.5E-06</v>
       </c>
       <c r="F8">
-        <v>1.9999999999999999E-7</v>
+        <v>1.5E-07</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>0.0375</v>
       </c>
     </row>
   </sheetData>
@@ -2785,88 +2391,88 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>0.89183</v>
+      </c>
+      <c r="C2">
+        <v>14269280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>0.0005780039999999999</v>
+      </c>
+      <c r="C3">
+        <v>9248.063999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>0.000372462</v>
+      </c>
+      <c r="C4">
+        <v>5959.392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>0.0007895599999999998</v>
+      </c>
+      <c r="C5">
+        <v>12632.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>0.00024742</v>
+      </c>
+      <c r="C6">
+        <v>3958.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2">
-        <v>5.1983903025064828</v>
-      </c>
-      <c r="C2">
-        <v>85206815.448383763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3">
-        <v>3.4769783923941219E-3</v>
-      </c>
-      <c r="C3">
-        <v>56991.152829732062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4">
-        <v>2.24409481417459E-3</v>
-      </c>
-      <c r="C4">
-        <v>36782.9580991357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5">
-        <v>3.9376758859118411E-3</v>
-      </c>
-      <c r="C5">
-        <v>64542.445445980993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6">
-        <v>1.331143820224719E-3</v>
-      </c>
-      <c r="C6">
-        <v>21818.77835730337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
       <c r="B7">
-        <v>97.868660328435595</v>
+        <v>16.1602</v>
       </c>
       <c r="C7">
-        <v>1604165211.443388</v>
+        <v>258563200</v>
       </c>
     </row>
   </sheetData>
